--- a/content/ensino/primeiro-semestre-de-2022/mes-3-dia-27-ava-matc65.xlsx
+++ b/content/ensino/primeiro-semestre-de-2022/mes-3-dia-27-ava-matc65.xlsx
@@ -779,7 +779,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>216117974</t>
+          <t>217216526</t>
         </is>
       </c>
       <c r="B14">
@@ -810,7 +810,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>221117463</t>
+          <t>216117974</t>
         </is>
       </c>
       <c r="B15">
@@ -841,7 +841,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>219218129</t>
+          <t>221117463</t>
         </is>
       </c>
       <c r="B16">
@@ -872,7 +872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>218215397</t>
+          <t>217125254</t>
         </is>
       </c>
       <c r="B17">
@@ -903,7 +903,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>217125254</t>
+          <t>219218129</t>
         </is>
       </c>
       <c r="B18">
@@ -934,7 +934,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>220117282</t>
+          <t>218215397</t>
         </is>
       </c>
       <c r="B19">
@@ -965,7 +965,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>219217429</t>
+          <t>220117282</t>
         </is>
       </c>
       <c r="B20">
@@ -996,7 +996,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>216216087</t>
+          <t>219217429</t>
         </is>
       </c>
       <c r="B21">
@@ -1027,7 +1027,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>220121412</t>
+          <t>216216087</t>
         </is>
       </c>
       <c r="B22">
@@ -1058,7 +1058,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>210201260</t>
+          <t>220121412</t>
         </is>
       </c>
       <c r="B23">
@@ -1089,7 +1089,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201520233</t>
+          <t>210201260</t>
         </is>
       </c>
       <c r="B24">
@@ -1120,7 +1120,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>217117994</t>
+          <t>201520233</t>
         </is>
       </c>
       <c r="B25">
@@ -1151,7 +1151,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>219118481</t>
+          <t>217117994</t>
         </is>
       </c>
       <c r="B26">
@@ -1182,7 +1182,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>221119218</t>
+          <t>219118481</t>
         </is>
       </c>
       <c r="B27">
@@ -1213,7 +1213,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>219215012</t>
+          <t>221119218</t>
         </is>
       </c>
       <c r="B28">
@@ -1244,7 +1244,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>219121541</t>
+          <t>219215012</t>
         </is>
       </c>
       <c r="B29">
@@ -1275,7 +1275,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>214007731</t>
+          <t>219121541</t>
         </is>
       </c>
       <c r="B30">
@@ -1306,7 +1306,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>219215013</t>
+          <t>214007731</t>
         </is>
       </c>
       <c r="B31">
@@ -1337,7 +1337,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>220117290</t>
+          <t>219215013</t>
         </is>
       </c>
       <c r="B32">
@@ -1368,7 +1368,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>219118473</t>
+          <t>220117290</t>
         </is>
       </c>
       <c r="B33">
@@ -1399,7 +1399,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>220117273</t>
+          <t>219118473</t>
         </is>
       </c>
       <c r="B34">
@@ -1430,7 +1430,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>220120071</t>
+          <t>220117273</t>
         </is>
       </c>
       <c r="B35">
@@ -1461,7 +1461,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>221216783</t>
+          <t>220120071</t>
         </is>
       </c>
       <c r="B36">
@@ -1492,7 +1492,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>214120645</t>
+          <t>221216783</t>
         </is>
       </c>
       <c r="B37">
@@ -1523,7 +1523,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>220217140</t>
+          <t>214120645</t>
         </is>
       </c>
       <c r="B38">
@@ -1554,7 +1554,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217117978</t>
+          <t>220217140</t>
         </is>
       </c>
       <c r="B39">

--- a/content/ensino/primeiro-semestre-de-2022/mes-3-dia-27-ava-matc65.xlsx
+++ b/content/ensino/primeiro-semestre-de-2022/mes-3-dia-27-ava-matc65.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,10 +395,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>total_views</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>nota_view</t>
         </is>
@@ -434,6 +439,9 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,9 +468,12 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.5</v>
       </c>
     </row>
@@ -491,9 +502,12 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
@@ -527,6 +541,9 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -550,13 +567,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -584,9 +604,12 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.5</v>
       </c>
     </row>
@@ -620,6 +643,9 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -646,10 +672,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -682,6 +711,9 @@
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -713,6 +745,9 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,9 +774,12 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
     </row>
@@ -770,9 +808,12 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0.5</v>
       </c>
     </row>
@@ -801,9 +842,12 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0.5</v>
       </c>
     </row>
@@ -837,6 +881,9 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -860,12 +907,15 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
         <v>2</v>
       </c>
     </row>
@@ -894,9 +944,12 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.5</v>
       </c>
     </row>
@@ -925,9 +978,12 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.5</v>
       </c>
     </row>
@@ -956,9 +1012,12 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>0.5</v>
       </c>
     </row>
@@ -987,10 +1046,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -1023,6 +1085,9 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1054,6 +1119,9 @@
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1080,9 +1148,12 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.4</v>
       </c>
     </row>
@@ -1116,6 +1187,9 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1147,6 +1221,9 @@
       <c r="I25">
         <v>0</v>
       </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1173,9 +1250,12 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0.5</v>
       </c>
     </row>
@@ -1204,10 +1284,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
@@ -1235,9 +1318,12 @@
         <v>1</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.5</v>
       </c>
     </row>
@@ -1269,6 +1355,9 @@
         <v>1</v>
       </c>
       <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
         <v>0.5</v>
       </c>
     </row>
@@ -1302,6 +1391,9 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1328,9 +1420,12 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>0.5</v>
       </c>
     </row>
@@ -1359,10 +1454,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -1387,13 +1485,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -1421,9 +1522,12 @@
         <v>1</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.5</v>
       </c>
     </row>
@@ -1452,9 +1556,12 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
         <v>2</v>
       </c>
     </row>
@@ -1488,6 +1595,9 @@
       <c r="I36">
         <v>0</v>
       </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1519,6 +1629,9 @@
       <c r="I37">
         <v>0</v>
       </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1550,6 +1663,9 @@
       <c r="I38">
         <v>0</v>
       </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1581,6 +1697,9 @@
       <c r="I39">
         <v>0</v>
       </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1607,10 +1726,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -1643,6 +1765,9 @@
       <c r="I41">
         <v>0</v>
       </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1674,6 +1799,9 @@
       <c r="I42">
         <v>0</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1700,9 +1828,12 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
         <v>2</v>
       </c>
     </row>
@@ -1731,9 +1862,12 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>0.5</v>
       </c>
     </row>
@@ -1767,6 +1901,9 @@
       <c r="I45">
         <v>0</v>
       </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1798,6 +1935,9 @@
       <c r="I46">
         <v>0</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1827,6 +1967,9 @@
         <v>0</v>
       </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>0</v>
       </c>
     </row>
